--- a/simulation/simulation_results.xlsx
+++ b/simulation/simulation_results.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\Graduate-Project-master\simulation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="13380" windowHeight="3660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Person</t>
   </si>
@@ -40,6 +45,42 @@
   </si>
   <si>
     <t>&gt;= 10% V</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>Config 1</t>
+  </si>
+  <si>
+    <t>Avg error</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>Config 3</t>
+  </si>
+  <si>
+    <t>Config 2</t>
   </si>
 </sst>
 </file>
@@ -75,10 +116,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -88,6 +130,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -171,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -553,13 +598,106 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
